--- a/tp2/exemple/src/moyennes.xlsx
+++ b/tp2/exemple/src/moyennes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF2194BD-01E4-4BFC-A044-54C1B9415605}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38A76127-1BEE-4D10-9842-ADB161CE9E66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>PR_1000_4000_1.txt</t>
   </si>
@@ -128,6 +128,108 @@
   </si>
   <si>
     <t>n^2</t>
+  </si>
+  <si>
+    <t>nlgn</t>
+  </si>
+  <si>
+    <t>10 0.000002593994140625</t>
+  </si>
+  <si>
+    <t>10 0.000078125</t>
+  </si>
+  <si>
+    <t>10 0.0000009375</t>
+  </si>
+  <si>
+    <t>100 0.00006703125</t>
+  </si>
+  <si>
+    <t>100 0.0000006890625</t>
+  </si>
+  <si>
+    <t>1000 0.0002466875</t>
+  </si>
+  <si>
+    <t>1000 0.0000153703125</t>
+  </si>
+  <si>
+    <t>20 0.000015625</t>
+  </si>
+  <si>
+    <t>20 0.000001</t>
+  </si>
+  <si>
+    <t>200 0.00018578125</t>
+  </si>
+  <si>
+    <t>200 0.00001356015625</t>
+  </si>
+  <si>
+    <t>2000 0.000083</t>
+  </si>
+  <si>
+    <t>2000 0.00000025546875</t>
+  </si>
+  <si>
+    <t>50 0.000009375</t>
+  </si>
+  <si>
+    <t>50 0.000000659375</t>
+  </si>
+  <si>
+    <t>500 0.000950296875</t>
+  </si>
+  <si>
+    <t>500 0.00003886328125</t>
+  </si>
+  <si>
+    <t>10 9.93728637695309e-06</t>
+  </si>
+  <si>
+    <t>100 1.26314163208007e-06</t>
+  </si>
+  <si>
+    <t>100 6.84976577758786e-07</t>
+  </si>
+  <si>
+    <t>1000 1.05929374694824e-06</t>
+  </si>
+  <si>
+    <t>1000 1.76715850830078e-07</t>
+  </si>
+  <si>
+    <t>20 2.45094299316406e-06</t>
+  </si>
+  <si>
+    <t>20 4.4833021199814e-06</t>
+  </si>
+  <si>
+    <t>200 9.97543334960935e-07</t>
+  </si>
+  <si>
+    <t>200 3.42029322128482e-07</t>
+  </si>
+  <si>
+    <t>2000 9.31918621063229e-07</t>
+  </si>
+  <si>
+    <t>2000 1.24300104868103e-07</t>
+  </si>
+  <si>
+    <t>50 1.29604339599609e-06</t>
+  </si>
+  <si>
+    <t>50 1.30058999598221e-06</t>
+  </si>
+  <si>
+    <t>500 9.53292846679687e-07</t>
+  </si>
+  <si>
+    <t>500 2.1957013944682e-07</t>
+  </si>
+  <si>
+    <t>np^2</t>
   </si>
 </sst>
 </file>
@@ -135,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.00000000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -188,8 +290,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,74 +299,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -281,10 +315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -539,16 +573,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="18.20703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3671875"/>
+    <col min="4" max="4" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.15625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.15625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.3671875" style="2"/>
@@ -1599,8 +1633,14 @@
       <c r="C40" t="s">
         <v>32</v>
       </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
       <c r="E40" t="s">
         <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1640,6 +1680,10 @@
         <f>D30/(B42)</f>
         <v>2.5939941406249964E-6</v>
       </c>
+      <c r="D42">
+        <f>F30/(B42*LOG(B42))</f>
+        <v>9.9372863769530894E-6</v>
+      </c>
       <c r="E42" s="6">
         <f>H30/(B42^2)</f>
         <v>7.8125000000000002E-5</v>
@@ -1652,6 +1696,10 @@
         <f>_xlfn.CONCAT(B42," ",C42)</f>
         <v>10 0,000002593994140625</v>
       </c>
+      <c r="I42" t="str">
+        <f>_xlfn.CONCAT(B42," ",D42)</f>
+        <v>10 9,93728637695309E-06</v>
+      </c>
       <c r="J42" t="str">
         <f>_xlfn.CONCAT(B42," ",E42)</f>
         <v>10 0,000078125</v>
@@ -1669,24 +1717,32 @@
         <f t="shared" ref="C43:C49" si="0">D31/(B43)</f>
         <v>1.2631416320800745E-6</v>
       </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D49" si="1">F31/(B43*LOG(B43))</f>
+        <v>6.8497657775878647E-7</v>
+      </c>
       <c r="E43" s="6">
-        <f t="shared" ref="E43:E49" si="1">H31/(B43^2)</f>
+        <f t="shared" ref="E43:E49" si="2">H31/(B43^2)</f>
         <v>6.7031249999999993E-5</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" ref="F43:F49" si="2">J31/(B43*$C$39^2)</f>
+        <f t="shared" ref="F43:F49" si="3">J31/(B43*$C$39^2)</f>
         <v>6.8906250000000002E-7</v>
       </c>
       <c r="H43" s="3" t="str">
-        <f t="shared" ref="H43:H49" si="3">_xlfn.CONCAT(B43," ",C43)</f>
+        <f t="shared" ref="H43:H49" si="4">_xlfn.CONCAT(B43," ",C43)</f>
         <v>100 1,26314163208007E-06</v>
       </c>
+      <c r="I43" t="str">
+        <f t="shared" ref="I43:I49" si="5">_xlfn.CONCAT(B43," ",D43)</f>
+        <v>100 6,84976577758786E-07</v>
+      </c>
       <c r="J43" t="str">
-        <f t="shared" ref="J43:J49" si="4">_xlfn.CONCAT(B43," ",E43)</f>
+        <f t="shared" ref="J43:J49" si="6">_xlfn.CONCAT(B43," ",E43)</f>
         <v>100 0,00006703125</v>
       </c>
       <c r="K43" s="2" t="str">
-        <f t="shared" ref="K43:K49" si="5">_xlfn.CONCAT(B43," ",F43)</f>
+        <f t="shared" ref="K43:K49" si="7">_xlfn.CONCAT(B43," ",F43)</f>
         <v>100 0,0000006890625</v>
       </c>
     </row>
@@ -1698,24 +1754,32 @@
         <f t="shared" si="0"/>
         <v>1.0592937469482391E-6</v>
       </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1.7671585083007799E-7</v>
+      </c>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.466875E-4</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5370312499999998E-5</v>
       </c>
       <c r="H44" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000 1,05929374694824E-06</v>
       </c>
+      <c r="I44" t="str">
+        <f t="shared" si="5"/>
+        <v>1000 1,76715850830078E-07</v>
+      </c>
       <c r="J44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000 0,0002466875</v>
       </c>
       <c r="K44" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1000 0,0000153703125</v>
       </c>
     </row>
@@ -1727,24 +1791,32 @@
         <f t="shared" si="0"/>
         <v>2.4509429931640598E-6</v>
       </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>4.4833021199813958E-6</v>
+      </c>
       <c r="E45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5625E-5</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="H45" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20 2,45094299316406E-06</v>
       </c>
+      <c r="I45" t="str">
+        <f t="shared" si="5"/>
+        <v>20 4,4833021199814E-06</v>
+      </c>
       <c r="J45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20 0,000015625</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20 0,000001</v>
       </c>
     </row>
@@ -1756,24 +1828,32 @@
         <f t="shared" si="0"/>
         <v>9.9754333496093479E-7</v>
       </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>3.4202932212848206E-7</v>
+      </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8578125000000002E-4</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.356015625E-5</v>
       </c>
       <c r="H46" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200 9,97543334960935E-07</v>
       </c>
+      <c r="I46" t="str">
+        <f t="shared" si="5"/>
+        <v>200 3,42029322128482E-07</v>
+      </c>
       <c r="J46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200 0,00018578125</v>
       </c>
       <c r="K46" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200 0,00001356015625</v>
       </c>
     </row>
@@ -1785,24 +1865,32 @@
         <f t="shared" si="0"/>
         <v>9.3191862106322944E-7</v>
       </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1.2430010486810337E-7</v>
+      </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2999999999999998E-5</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5546875000000002E-7</v>
       </c>
       <c r="H47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2000 9,31918621063229E-07</v>
       </c>
+      <c r="I47" t="str">
+        <f t="shared" si="5"/>
+        <v>2000 1,24300104868103E-07</v>
+      </c>
       <c r="J47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000 0,000083</v>
       </c>
       <c r="K47" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2000 0,00000025546875</v>
       </c>
     </row>
@@ -1814,24 +1902,32 @@
         <f t="shared" si="0"/>
         <v>1.2960433959960929E-6</v>
       </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1.3005899959822079E-6</v>
+      </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3749999999999992E-6</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5937500000000004E-7</v>
       </c>
       <c r="H48" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50 1,29604339599609E-06</v>
       </c>
+      <c r="I48" t="str">
+        <f t="shared" si="5"/>
+        <v>50 1,30058999598221E-06</v>
+      </c>
       <c r="J48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50 0,000009375</v>
       </c>
       <c r="K48" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50 0,000000659375</v>
       </c>
     </row>
@@ -1843,25 +1939,257 @@
         <f t="shared" si="0"/>
         <v>9.532928466796868E-7</v>
       </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>2.1957013944681952E-7</v>
+      </c>
       <c r="E49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5029687499999997E-4</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8863281249999998E-5</v>
       </c>
       <c r="H49" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500 9,53292846679687E-07</v>
       </c>
+      <c r="I49" t="str">
+        <f t="shared" si="5"/>
+        <v>500 2,1957013944682E-07</v>
+      </c>
       <c r="J49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>500 0,000950296875</v>
       </c>
       <c r="K49" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>500 0,00003886328125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="H52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="H53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="H54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="H55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="H56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="H57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" t="s">
+        <v>64</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="H58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="H59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="H61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="H62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="H63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="H64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11">
+      <c r="H65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11">
+      <c r="H66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" t="s">
+        <v>52</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11">
+      <c r="H67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11">
+      <c r="H68" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/tp2/exemple/src/moyennes.xlsx
+++ b/tp2/exemple/src/moyennes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{38A76127-1BEE-4D10-9842-ADB161CE9E66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ACACE21F-8585-4CC6-AF57-868941EBBA4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,89 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
-  <si>
-    <t>PR_1000_4000_1.txt</t>
-  </si>
-  <si>
-    <t>PR_100_400_1.txt</t>
-  </si>
-  <si>
-    <t>PR_500_2000_1.txt</t>
-  </si>
-  <si>
-    <t>WC-10-10-01.txt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>WC-10-100-01.txt</t>
   </si>
   <si>
-    <t>WC-10-1000-01.txt</t>
-  </si>
-  <si>
-    <t>WC-100-10-01.txt</t>
-  </si>
-  <si>
     <t>WC-100-100-01.txt</t>
   </si>
   <si>
-    <t>WC-100-1000-01.txt</t>
-  </si>
-  <si>
-    <t>WC-1000-10-01.txt</t>
-  </si>
-  <si>
     <t>WC-1000-100-01.txt</t>
   </si>
   <si>
-    <t>WC-1000-1000-01.txt</t>
-  </si>
-  <si>
-    <t>WC-20-10-01.txt</t>
-  </si>
-  <si>
     <t>WC-20-100-01.txt</t>
   </si>
   <si>
-    <t>WC-20-1000-01.txt</t>
-  </si>
-  <si>
-    <t>WC-200-10-01.txt</t>
-  </si>
-  <si>
     <t>WC-200-100-01.txt</t>
   </si>
   <si>
-    <t>WC-200-1000-01.txt</t>
-  </si>
-  <si>
-    <t>WC-2000-10-01.txt</t>
-  </si>
-  <si>
     <t>WC-2000-100-01.txt</t>
   </si>
   <si>
-    <t>WC-2000-1000-01.txt</t>
-  </si>
-  <si>
-    <t>WC-50-10-01.txt</t>
-  </si>
-  <si>
     <t>WC-50-100-01.txt</t>
   </si>
   <si>
-    <t>WC-50-1000-01.txt</t>
-  </si>
-  <si>
-    <t>WC-500-10-01.txt</t>
-  </si>
-  <si>
     <t>WC-500-100-01.txt</t>
   </si>
   <si>
-    <t>WC-500-1000-01.txt</t>
-  </si>
-  <si>
     <t>glouton</t>
   </si>
   <si>
@@ -230,6 +173,87 @@
   </si>
   <si>
     <t>np^2</t>
+  </si>
+  <si>
+    <t>PR_1000_4000_1</t>
+  </si>
+  <si>
+    <t>PR_100_400_1</t>
+  </si>
+  <si>
+    <t>PR_500_2000_1</t>
+  </si>
+  <si>
+    <t>WC-10-10-01</t>
+  </si>
+  <si>
+    <t>WC-10-100-01</t>
+  </si>
+  <si>
+    <t>WC-10-1000-01</t>
+  </si>
+  <si>
+    <t>WC-100-10-01</t>
+  </si>
+  <si>
+    <t>WC-100-100-01</t>
+  </si>
+  <si>
+    <t>WC-100-1000-01</t>
+  </si>
+  <si>
+    <t>WC-1000-10-01</t>
+  </si>
+  <si>
+    <t>WC-1000-100-01</t>
+  </si>
+  <si>
+    <t>WC-1000-1000-01</t>
+  </si>
+  <si>
+    <t>WC-20-10-01</t>
+  </si>
+  <si>
+    <t>WC-20-100-01</t>
+  </si>
+  <si>
+    <t>WC-20-1000-01</t>
+  </si>
+  <si>
+    <t>WC-200-10-01</t>
+  </si>
+  <si>
+    <t>WC-200-100-01</t>
+  </si>
+  <si>
+    <t>WC-200-1000-01</t>
+  </si>
+  <si>
+    <t>WC-2000-10-01</t>
+  </si>
+  <si>
+    <t>WC-2000-100-01</t>
+  </si>
+  <si>
+    <t>WC-2000-1000-01</t>
+  </si>
+  <si>
+    <t>WC-50-10-01</t>
+  </si>
+  <si>
+    <t>WC-50-100-01</t>
+  </si>
+  <si>
+    <t>WC-50-1000-01</t>
+  </si>
+  <si>
+    <t>WC-500-10-01</t>
+  </si>
+  <si>
+    <t>WC-500-100-01</t>
+  </si>
+  <si>
+    <t>WC-500-1000-01</t>
   </si>
 </sst>
 </file>
@@ -576,7 +600,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
@@ -592,23 +616,23 @@
     <col min="11" max="11" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="3:11">
       <c r="D1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.399999999999999">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" ht="17.399999999999999">
+      <c r="C2" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D2">
         <v>8.849620819091781E-4</v>
@@ -635,9 +659,9 @@
         <v>1.3277600196705189E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.399999999999999">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
+    <row r="3" spans="3:11" ht="17.399999999999999">
+      <c r="C3" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D3">
         <v>1.0101795196533188E-4</v>
@@ -664,9 +688,9 @@
         <v>3.5545023696682464E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.399999999999999">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
+    <row r="4" spans="3:11" ht="17.399999999999999">
+      <c r="C4" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D4">
         <v>4.5180320739746023E-4</v>
@@ -693,9 +717,9 @@
         <v>1.0174134220309137E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.399999999999999">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
+    <row r="5" spans="3:11" ht="17.399999999999999">
+      <c r="C5" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="1">
         <v>2.7060508728027323E-5</v>
@@ -722,9 +746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.399999999999999">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
+    <row r="6" spans="3:11" ht="17.399999999999999">
+      <c r="C6" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D6">
         <v>2.5939941406249962E-5</v>
@@ -751,9 +775,9 @@
         <v>1.2236710130391159E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.399999999999999">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
+    <row r="7" spans="3:11" ht="17.399999999999999">
+      <c r="C7" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D7">
         <v>3.0422210693359336E-5</v>
@@ -780,9 +804,9 @@
         <v>1.1470113085621984E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.399999999999999">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+    <row r="8" spans="3:11" ht="17.399999999999999">
+      <c r="C8" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D8">
         <v>1.0538101196289019E-4</v>
@@ -809,9 +833,9 @@
         <v>0.42675159235668791</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.399999999999999">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
+    <row r="9" spans="3:11" ht="17.399999999999999">
+      <c r="C9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D9">
         <v>1.2631416320800745E-4</v>
@@ -838,9 +862,9 @@
         <v>0.43795368129968881</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.399999999999999">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
+    <row r="10" spans="3:11" ht="17.399999999999999">
+      <c r="C10" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D10">
         <v>1.209259033203122E-4</v>
@@ -867,9 +891,9 @@
         <v>0.63980193055033219</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.399999999999999">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
+    <row r="11" spans="3:11" ht="17.399999999999999">
+      <c r="C11" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D11">
         <v>8.6641311645507726E-4</v>
@@ -896,9 +920,9 @@
         <v>0.4562913907284768</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.399999999999999">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
+    <row r="12" spans="3:11" ht="17.399999999999999">
+      <c r="C12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D12">
         <v>1.0592937469482392E-3</v>
@@ -925,9 +949,9 @@
         <v>0.8801662049861495</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.399999999999999">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
+    <row r="13" spans="3:11" ht="17.399999999999999">
+      <c r="C13" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D13">
         <v>9.1073513031005753E-4</v>
@@ -954,9 +978,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.399999999999999">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
+    <row r="14" spans="3:11" ht="17.399999999999999">
+      <c r="C14" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D14">
         <v>3.3354759216308548E-5</v>
@@ -983,9 +1007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.399999999999999">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
+    <row r="15" spans="3:11" ht="17.399999999999999">
+      <c r="C15" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D15">
         <v>4.9018859863281194E-5</v>
@@ -1012,9 +1036,9 @@
         <v>3.1906614785992202E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.399999999999999">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
+    <row r="16" spans="3:11" ht="17.399999999999999">
+      <c r="C16" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D16">
         <v>3.7264823913574154E-5</v>
@@ -1042,8 +1066,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17.399999999999999">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D17">
         <v>1.811504364013668E-4</v>
@@ -1071,8 +1095,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="17.399999999999999">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1.9950866699218697E-4</v>
@@ -1100,8 +1124,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.399999999999999">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D19">
         <v>2.1052360534667917E-4</v>
@@ -1129,8 +1153,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="17.399999999999999">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D20">
         <v>1.7978429794311477E-3</v>
@@ -1158,8 +1182,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17.399999999999999">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D21">
         <v>1.863837242126459E-3</v>
@@ -1187,8 +1211,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.399999999999999">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D22">
         <v>2.1454572677612259E-3</v>
@@ -1216,8 +1240,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.399999999999999">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D23" s="1">
         <v>5.7888031005859344E-5</v>
@@ -1245,8 +1269,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="17.399999999999999">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
+      <c r="C24" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D24" s="1">
         <v>6.480216979980465E-5</v>
@@ -1274,8 +1298,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="17.399999999999999">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D25" s="1">
         <v>6.0510635375976518E-5</v>
@@ -1303,8 +1327,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="17.399999999999999">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="1">
         <v>5.1259994506835905E-4</v>
@@ -1332,8 +1356,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="17.399999999999999">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D27" s="1">
         <v>4.7664642333984338E-4</v>
@@ -1361,8 +1385,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.399999999999999">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
+      <c r="C28" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D28" s="1">
         <v>4.4062137603759731E-4</v>
@@ -1391,7 +1415,7 @@
     </row>
     <row r="30" spans="1:11" ht="17.399999999999999">
       <c r="A30" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>2.5939941406249962E-5</v>
@@ -1420,7 +1444,7 @@
     </row>
     <row r="31" spans="1:11" ht="17.399999999999999">
       <c r="A31" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1.2631416320800745E-4</v>
@@ -1449,7 +1473,7 @@
     </row>
     <row r="32" spans="1:11" ht="17.399999999999999">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>1.0592937469482392E-3</v>
@@ -1478,7 +1502,7 @@
     </row>
     <row r="33" spans="1:11" ht="17.399999999999999">
       <c r="A33" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>4.9018859863281194E-5</v>
@@ -1507,7 +1531,7 @@
     </row>
     <row r="34" spans="1:11" ht="17.399999999999999">
       <c r="A34" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>1.9950866699218697E-4</v>
@@ -1536,7 +1560,7 @@
     </row>
     <row r="35" spans="1:11" ht="17.399999999999999">
       <c r="A35" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>1.863837242126459E-3</v>
@@ -1565,7 +1589,7 @@
     </row>
     <row r="36" spans="1:11" ht="17.399999999999999">
       <c r="A36" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
         <v>6.480216979980465E-5</v>
@@ -1594,7 +1618,7 @@
     </row>
     <row r="37" spans="1:11" ht="17.399999999999999">
       <c r="A37" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1">
         <v>4.7664642333984338E-4</v>
@@ -1623,7 +1647,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -1631,45 +1655,45 @@
     </row>
     <row r="40" spans="1:11">
       <c r="C40" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1970,226 +1994,226 @@
     </row>
     <row r="52" spans="2:11">
       <c r="H52" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J52" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="H53" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="H54" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="H55" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="H56" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="H57" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="H58" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="H59" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="H61" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="H62" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="H63" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="H64" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="8:11">
       <c r="H65" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="8:11">
       <c r="H66" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="8:11">
       <c r="H67" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="8:11">
       <c r="H68" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
